--- a/RootDigital_Deliverable_1_SprintBacklog_1.xlsx
+++ b/RootDigital_Deliverable_1_SprintBacklog_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johnny Sylvain\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\Root-Digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B508364-097F-4CE9-8F54-293740A4A809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71404DB5-DC33-49DD-BE58-8CED0533E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -376,14 +376,14 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>

--- a/RootDigital_Deliverable_1_SprintBacklog_1.xlsx
+++ b/RootDigital_Deliverable_1_SprintBacklog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Repos\Root-Digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71404DB5-DC33-49DD-BE58-8CED0533E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CAE5F-7C0F-4022-A587-A39FE8FAF70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="3045" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4935" yWindow="2385" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>User Story</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>How to implement</t>
+  </si>
+  <si>
+    <t>Everyone - 20% each</t>
   </si>
 </sst>
 </file>
@@ -374,9 +377,9 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -442,8 +445,12 @@
       <c r="G2" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -467,8 +474,12 @@
       <c r="G3" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -492,8 +503,12 @@
       <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
